--- a/Title.xlsx
+++ b/Title.xlsx
@@ -52,85 +52,85 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
+    <x:t>Opportunity-Opportunity_19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Opportunity tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Opportunity Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  Opportunitys displayed, select the appropriate Opportunity.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Opportunity details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verify Opportunity update with new value.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Updated Opportunity details should be verified.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scroll down to locate Open Activities section.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User able to validate the Task details.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Validate if the Subject field value is as provided in the Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Should be able to validate the field details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Opportunity-Report Lost Opportunities</x:t>
+  </x:si>
+  <x:si>
     <x:t>Lead-Report Unassigned Leads</x:t>
   </x:si>
   <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on the Lead tab</x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Lead Page</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
     <x:t>From the list of the  Leads displayed, select the appropriate Lead.</x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Lead details page.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 3</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify Lead update with new value.</x:t>
   </x:si>
   <x:si>
     <x:t>Updated Lead details should be verified.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Opportunity-Opportunity_19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Opportunity tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Opportunity Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of the  Opportunitys displayed, select the appropriate Opportunity.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Opportunity details page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Opportunity update with new value.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Updated Opportunity details should be verified.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scroll down to locate Open Activities section.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User able to validate the Task details.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the Subject field value is as provided in the Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Should be able to validate the field details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Opportunity-Report Lost Opportunities</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -633,21 +633,13 @@
       <x:c r="J4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>24</x:v>
@@ -665,31 +657,39 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
+      <x:c r="A7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -701,13 +701,13 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -719,26 +719,26 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>13</x:v>
@@ -748,10 +748,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -766,10 +766,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -784,10 +784,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
